--- a/Funders.xlsx
+++ b/Funders.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="156">
-  <si>
-    <t>Organization</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="155">
+  <si>
+    <t>Entity</t>
   </si>
   <si>
     <t>Product</t>
@@ -259,9 +259,6 @@
     <t>https://www.stcharleshealthcare.org/community-health/community-benefit-grants-and-sponsorships</t>
   </si>
   <si>
-    <t>Foundation</t>
-  </si>
-  <si>
     <t>Carpenter Foundation</t>
   </si>
   <si>
@@ -406,9 +403,6 @@
     <t>https://www.weyerhaeuser.com/company/values/citizenship/giving-fund/</t>
   </si>
   <si>
-    <t>Entity</t>
-  </si>
-  <si>
     <t>Oregon Health Authority</t>
   </si>
   <si>
@@ -473,6 +467,9 @@
   </si>
   <si>
     <t>Patient Centered Outcomes Research Organization</t>
+  </si>
+  <si>
+    <t>Need info</t>
   </si>
   <si>
     <t>https://www.pcori.org/</t>
@@ -6248,8 +6245,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>81</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -6260,234 +6257,234 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="16" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>85</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>87</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>89</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="C6" s="17" t="s">
         <v>92</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="C7" s="17" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>95</v>
-      </c>
       <c r="C8" s="17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="18"/>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="C9" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="C10" s="16" t="s">
         <v>102</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>104</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="C12" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>109</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B14" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="16" t="s">
         <v>111</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="16" t="s">
         <v>113</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C16" s="16" t="s">
         <v>115</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="16" t="s">
         <v>119</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>121</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B20" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="C20" s="16" t="s">
         <v>124</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="B21" s="11" t="s">
-        <v>124</v>
-      </c>
       <c r="C21" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="C22" s="16" t="s">
         <v>128</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -6534,8 +6531,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>130</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -6546,101 +6543,101 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="16" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B4" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>134</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="11" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>146</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="17" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -6673,8 +6670,8 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="11" t="s">
-        <v>130</v>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>1</v>
@@ -6685,29 +6682,35 @@
     </row>
     <row r="2">
       <c r="A2" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>149</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>154</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
